--- a/data/pca/factorExposure/factorExposure_2014-08-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.009366872318682029</v>
+        <v>0.0189729951135145</v>
       </c>
       <c r="C2">
-        <v>-0.1196515516827565</v>
+        <v>0.06783540955991263</v>
       </c>
       <c r="D2">
-        <v>-0.01896424573042597</v>
+        <v>0.03018240001363558</v>
       </c>
       <c r="E2">
-        <v>0.222298838662182</v>
+        <v>-0.002735281847961354</v>
       </c>
       <c r="F2">
-        <v>0.0543964444927924</v>
+        <v>0.03415526123144507</v>
       </c>
       <c r="G2">
-        <v>0.0757450723210428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1657390800000051</v>
+      </c>
+      <c r="H2">
+        <v>-0.0242246805492104</v>
+      </c>
+      <c r="I2">
+        <v>0.01671148871694696</v>
+      </c>
+      <c r="J2">
+        <v>-0.1225360353604101</v>
+      </c>
+      <c r="K2">
+        <v>-0.046477533439833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.02469850111371662</v>
+        <v>0.01899777021896145</v>
       </c>
       <c r="C4">
-        <v>-0.1681186530974488</v>
+        <v>0.1430525291404197</v>
       </c>
       <c r="D4">
-        <v>-0.03345970061895656</v>
+        <v>0.06534353157072116</v>
       </c>
       <c r="E4">
-        <v>0.05206081176708727</v>
+        <v>-0.004419744350382392</v>
       </c>
       <c r="F4">
-        <v>-0.05758466415747957</v>
+        <v>0.06096399475296992</v>
       </c>
       <c r="G4">
-        <v>-0.0226347649655565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03745305771644936</v>
+      </c>
+      <c r="H4">
+        <v>0.02195806081880881</v>
+      </c>
+      <c r="I4">
+        <v>0.07670369202675272</v>
+      </c>
+      <c r="J4">
+        <v>-0.07222686344669656</v>
+      </c>
+      <c r="K4">
+        <v>0.02180816664845337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02860718150707592</v>
+        <v>0.04039266860052971</v>
       </c>
       <c r="C6">
-        <v>-0.07483120674183642</v>
+        <v>0.08588823148269936</v>
       </c>
       <c r="D6">
-        <v>-0.0519378425086022</v>
+        <v>0.02878303396564598</v>
       </c>
       <c r="E6">
-        <v>0.05591334362679713</v>
+        <v>-0.01712799718494622</v>
       </c>
       <c r="F6">
-        <v>0.004540547629861888</v>
+        <v>-0.03186279808730095</v>
       </c>
       <c r="G6">
-        <v>-0.05534234339995332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04072978104316007</v>
+      </c>
+      <c r="H6">
+        <v>0.05771140594851069</v>
+      </c>
+      <c r="I6">
+        <v>0.048964812259506</v>
+      </c>
+      <c r="J6">
+        <v>0.03641051215732982</v>
+      </c>
+      <c r="K6">
+        <v>-0.01996766666853741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.01228961512367019</v>
+        <v>0.01887131888563881</v>
       </c>
       <c r="C7">
-        <v>-0.07473781754341219</v>
+        <v>0.07031110014475764</v>
       </c>
       <c r="D7">
-        <v>-0.03842021990762605</v>
+        <v>0.03259693106042071</v>
       </c>
       <c r="E7">
-        <v>0.01204175048485549</v>
+        <v>-0.004738434788995599</v>
       </c>
       <c r="F7">
-        <v>-0.01747582945930842</v>
+        <v>0.01440777272475866</v>
       </c>
       <c r="G7">
-        <v>-0.04337147766385033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.007911872003518375</v>
+      </c>
+      <c r="H7">
+        <v>0.03020792806609801</v>
+      </c>
+      <c r="I7">
+        <v>0.0699191978524841</v>
+      </c>
+      <c r="J7">
+        <v>-0.07964893054850666</v>
+      </c>
+      <c r="K7">
+        <v>-0.02928468002510645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.009193695856303681</v>
+        <v>0.001263414942912243</v>
       </c>
       <c r="C8">
-        <v>-0.07103441052552789</v>
+        <v>0.06099598721129506</v>
       </c>
       <c r="D8">
-        <v>-0.03476157474328473</v>
+        <v>0.04844908545965617</v>
       </c>
       <c r="E8">
-        <v>0.06993474006246729</v>
+        <v>-0.04914636279194715</v>
       </c>
       <c r="F8">
-        <v>-0.0127089792027407</v>
+        <v>0.01193644480878615</v>
       </c>
       <c r="G8">
-        <v>0.011754919822418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0557403641369786</v>
+      </c>
+      <c r="H8">
+        <v>-0.009571729164917938</v>
+      </c>
+      <c r="I8">
+        <v>0.05739814825039248</v>
+      </c>
+      <c r="J8">
+        <v>-0.004343815700658396</v>
+      </c>
+      <c r="K8">
+        <v>0.001970601716083817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.01479637080843349</v>
+        <v>0.01346743068734394</v>
       </c>
       <c r="C9">
-        <v>-0.120290052834652</v>
+        <v>0.1003925257060075</v>
       </c>
       <c r="D9">
-        <v>-0.04735651303019878</v>
+        <v>0.04046613170195224</v>
       </c>
       <c r="E9">
-        <v>0.01173651147188092</v>
+        <v>0.01657362175727676</v>
       </c>
       <c r="F9">
-        <v>-0.000814898847483584</v>
+        <v>0.03308834432663157</v>
       </c>
       <c r="G9">
-        <v>-0.02532091850843085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02639998059414765</v>
+      </c>
+      <c r="H9">
+        <v>0.006015818707756819</v>
+      </c>
+      <c r="I9">
+        <v>0.07911221009110961</v>
+      </c>
+      <c r="J9">
+        <v>-0.07963271362814607</v>
+      </c>
+      <c r="K9">
+        <v>-0.01079098877655999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.25989270686258</v>
+        <v>0.2466602439426201</v>
       </c>
       <c r="C10">
-        <v>0.08838088683189184</v>
+        <v>-0.09763464673611952</v>
       </c>
       <c r="D10">
-        <v>0.02606170880907349</v>
+        <v>-0.003798390392230164</v>
       </c>
       <c r="E10">
-        <v>-0.03102074458824907</v>
+        <v>-0.05423278825923473</v>
       </c>
       <c r="F10">
-        <v>-0.01587720495592743</v>
+        <v>-0.02320598143652345</v>
       </c>
       <c r="G10">
-        <v>0.005427067270883829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.005319839917343862</v>
+      </c>
+      <c r="H10">
+        <v>0.03264616078914571</v>
+      </c>
+      <c r="I10">
+        <v>0.04446516287600032</v>
+      </c>
+      <c r="J10">
+        <v>-0.01055787344592673</v>
+      </c>
+      <c r="K10">
+        <v>0.1321331954038605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.007950946076936118</v>
+        <v>0.01684252515485972</v>
       </c>
       <c r="C11">
-        <v>-0.06790735025161826</v>
+        <v>0.07860752233458056</v>
       </c>
       <c r="D11">
-        <v>-0.02870680780705278</v>
+        <v>0.03776855993945785</v>
       </c>
       <c r="E11">
-        <v>-0.02243103898960886</v>
+        <v>0.01038079626526415</v>
       </c>
       <c r="F11">
-        <v>-0.008007510471585367</v>
+        <v>0.005089225986396674</v>
       </c>
       <c r="G11">
-        <v>-0.0355282499259971</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.01188211866106178</v>
+      </c>
+      <c r="H11">
+        <v>0.008027197361726196</v>
+      </c>
+      <c r="I11">
+        <v>0.02696593166302133</v>
+      </c>
+      <c r="J11">
+        <v>-0.02274069924503761</v>
+      </c>
+      <c r="K11">
+        <v>-0.02606593957741109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.005914791521854043</v>
+        <v>0.01679325715612296</v>
       </c>
       <c r="C12">
-        <v>-0.04557523066170936</v>
+        <v>0.05274275888119285</v>
       </c>
       <c r="D12">
-        <v>-0.03728105587870211</v>
+        <v>0.02618912967211864</v>
       </c>
       <c r="E12">
-        <v>-0.01483313350674178</v>
+        <v>0.01258829928341608</v>
       </c>
       <c r="F12">
-        <v>0.02174710965373928</v>
+        <v>-0.01426219656596463</v>
       </c>
       <c r="G12">
-        <v>-0.04100416719476659</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.001377374845086859</v>
+      </c>
+      <c r="H12">
+        <v>0.02369515665266859</v>
+      </c>
+      <c r="I12">
+        <v>0.03009196823454279</v>
+      </c>
+      <c r="J12">
+        <v>-0.01292892191926028</v>
+      </c>
+      <c r="K12">
+        <v>-0.009388484275799931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01401423992035212</v>
+        <v>0.005487882699156899</v>
       </c>
       <c r="C13">
-        <v>-0.1238045069805531</v>
+        <v>0.1093833951662887</v>
       </c>
       <c r="D13">
-        <v>-0.07907569951060228</v>
+        <v>0.04158242735234799</v>
       </c>
       <c r="E13">
-        <v>0.05173954082198216</v>
+        <v>-0.01150777075592501</v>
       </c>
       <c r="F13">
-        <v>0.07723014722168055</v>
+        <v>-0.0416894678807944</v>
       </c>
       <c r="G13">
-        <v>-0.1141479988447543</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1569288041578615</v>
+      </c>
+      <c r="H13">
+        <v>0.1175777031757756</v>
+      </c>
+      <c r="I13">
+        <v>0.02917581815451029</v>
+      </c>
+      <c r="J13">
+        <v>-0.217831894198957</v>
+      </c>
+      <c r="K13">
+        <v>0.1042352109245387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01140765628802099</v>
+        <v>0.02060350031211911</v>
       </c>
       <c r="C14">
-        <v>-0.07744274348897258</v>
+        <v>0.07309991426842982</v>
       </c>
       <c r="D14">
-        <v>-0.04379237613965385</v>
+        <v>0.0474684661370021</v>
       </c>
       <c r="E14">
-        <v>0.02622632357671912</v>
+        <v>0.0009815894283520369</v>
       </c>
       <c r="F14">
-        <v>0.04315064230807648</v>
+        <v>-0.03465921654170327</v>
       </c>
       <c r="G14">
-        <v>-0.06052982325801032</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02309524446549468</v>
+      </c>
+      <c r="H14">
+        <v>0.09918973788452352</v>
+      </c>
+      <c r="I14">
+        <v>0.1567641433852247</v>
+      </c>
+      <c r="J14">
+        <v>-0.1085442615574139</v>
+      </c>
+      <c r="K14">
+        <v>-0.03647262202778721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.01030705216709034</v>
+        <v>0.004275736220654913</v>
       </c>
       <c r="C15">
-        <v>-0.07187553085919839</v>
+        <v>0.07041734774572998</v>
       </c>
       <c r="D15">
-        <v>-0.02648763662555098</v>
+        <v>0.03002365412200556</v>
       </c>
       <c r="E15">
-        <v>0.04354991933974239</v>
+        <v>-0.01584698653666678</v>
       </c>
       <c r="F15">
-        <v>-0.01773977339757199</v>
+        <v>0.02468300307224883</v>
       </c>
       <c r="G15">
-        <v>-0.021874714874996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.02043514824129845</v>
+      </c>
+      <c r="H15">
+        <v>0.02408503598222374</v>
+      </c>
+      <c r="I15">
+        <v>0.06749430090668875</v>
+      </c>
+      <c r="J15">
+        <v>-0.03609647221270725</v>
+      </c>
+      <c r="K15">
+        <v>-0.03651793852552417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01023301305327281</v>
+        <v>0.01625854901109222</v>
       </c>
       <c r="C16">
-        <v>-0.0558568716194841</v>
+        <v>0.06065229322486262</v>
       </c>
       <c r="D16">
-        <v>-0.0265184026550091</v>
+        <v>0.02673992204097009</v>
       </c>
       <c r="E16">
-        <v>-0.01666745199383467</v>
+        <v>0.01432637692328687</v>
       </c>
       <c r="F16">
-        <v>0.004989134820006192</v>
+        <v>0.004168065272179042</v>
       </c>
       <c r="G16">
-        <v>-0.01943283565990951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005692603038657045</v>
+      </c>
+      <c r="H16">
+        <v>0.007434433832923948</v>
+      </c>
+      <c r="I16">
+        <v>0.02065796168431534</v>
+      </c>
+      <c r="J16">
+        <v>-0.01320910362200029</v>
+      </c>
+      <c r="K16">
+        <v>-0.0170889894285246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.0132664916263698</v>
+        <v>0.01540326152244352</v>
       </c>
       <c r="C20">
-        <v>-0.09307689957530392</v>
+        <v>0.08426306576994071</v>
       </c>
       <c r="D20">
-        <v>-0.0401156865803995</v>
+        <v>0.02672653061346541</v>
       </c>
       <c r="E20">
-        <v>-0.03389475556599186</v>
+        <v>-0.009938260593325096</v>
       </c>
       <c r="F20">
-        <v>0.01139386659344842</v>
+        <v>0.01443931610156626</v>
       </c>
       <c r="G20">
-        <v>-0.07948105531307309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.02024901611821217</v>
+      </c>
+      <c r="H20">
+        <v>0.0372480422613673</v>
+      </c>
+      <c r="I20">
+        <v>0.06798569708646782</v>
+      </c>
+      <c r="J20">
+        <v>-0.03235941212348128</v>
+      </c>
+      <c r="K20">
+        <v>-0.0136781479221606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.003317297118372547</v>
+        <v>0.01470845779293905</v>
       </c>
       <c r="C21">
-        <v>-0.08137093811587508</v>
+        <v>0.068082855821008</v>
       </c>
       <c r="D21">
-        <v>0.02104594158536713</v>
+        <v>0.01899201830297926</v>
       </c>
       <c r="E21">
-        <v>0.04301240612173454</v>
+        <v>-0.01128806673448306</v>
       </c>
       <c r="F21">
-        <v>0.08240972570533235</v>
+        <v>-0.07441363963625425</v>
       </c>
       <c r="G21">
-        <v>-0.01003698196459655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.06341874088920989</v>
+      </c>
+      <c r="H21">
+        <v>0.02781810835966403</v>
+      </c>
+      <c r="I21">
+        <v>0.09954159688753007</v>
+      </c>
+      <c r="J21">
+        <v>-0.1030176212023736</v>
+      </c>
+      <c r="K21">
+        <v>-0.003111513116303048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.0187029060209107</v>
+        <v>0.008166639021400288</v>
       </c>
       <c r="C22">
-        <v>-0.2286928379093492</v>
+        <v>0.1691874579492363</v>
       </c>
       <c r="D22">
-        <v>0.09673935096239662</v>
+        <v>0.01950559719899132</v>
       </c>
       <c r="E22">
-        <v>0.3303823678235849</v>
+        <v>-0.1348265971791432</v>
       </c>
       <c r="F22">
-        <v>-0.3098951720320782</v>
+        <v>0.3164366158968524</v>
       </c>
       <c r="G22">
-        <v>-0.02169935088646687</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.3966076314497746</v>
+      </c>
+      <c r="H22">
+        <v>-0.009839564924119689</v>
+      </c>
+      <c r="I22">
+        <v>-0.2869661624475333</v>
+      </c>
+      <c r="J22">
+        <v>0.1664968424307412</v>
+      </c>
+      <c r="K22">
+        <v>-0.02717600070500149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01967401196728665</v>
+        <v>0.01332072949486065</v>
       </c>
       <c r="C23">
-        <v>-0.2323012629877161</v>
+        <v>0.1724951089033784</v>
       </c>
       <c r="D23">
-        <v>0.101634755273161</v>
+        <v>0.01902845915492891</v>
       </c>
       <c r="E23">
-        <v>0.3247090312079302</v>
+        <v>-0.1272815453992285</v>
       </c>
       <c r="F23">
-        <v>-0.3058254726217752</v>
+        <v>0.3082445955501961</v>
       </c>
       <c r="G23">
-        <v>-0.02030807442254387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.3870096092716718</v>
+      </c>
+      <c r="H23">
+        <v>-0.008420987792175009</v>
+      </c>
+      <c r="I23">
+        <v>-0.2678417787047733</v>
+      </c>
+      <c r="J23">
+        <v>0.1535665587071319</v>
+      </c>
+      <c r="K23">
+        <v>-0.03109667739914077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.008374825464431005</v>
+        <v>0.01691864579944601</v>
       </c>
       <c r="C24">
-        <v>-0.05953090915200777</v>
+        <v>0.06341945693196425</v>
       </c>
       <c r="D24">
-        <v>-0.04318666957329822</v>
+        <v>0.04013281540243764</v>
       </c>
       <c r="E24">
-        <v>-0.01420803072486914</v>
+        <v>0.01127641926381409</v>
       </c>
       <c r="F24">
-        <v>0.0004016947438533856</v>
+        <v>0.006906248090379466</v>
       </c>
       <c r="G24">
-        <v>-0.04797508041437405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.005965826814588037</v>
+      </c>
+      <c r="H24">
+        <v>0.02090562089774354</v>
+      </c>
+      <c r="I24">
+        <v>0.03350617132267881</v>
+      </c>
+      <c r="J24">
+        <v>-0.02995226682917266</v>
+      </c>
+      <c r="K24">
+        <v>-0.02392733728198017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.008344015732080004</v>
+        <v>0.02082567589909841</v>
       </c>
       <c r="C25">
-        <v>-0.06534534142405128</v>
+        <v>0.06720836370966506</v>
       </c>
       <c r="D25">
-        <v>-0.02016089250233312</v>
+        <v>0.03248019492629357</v>
       </c>
       <c r="E25">
-        <v>-0.02020181582291636</v>
+        <v>0.01509340244637268</v>
       </c>
       <c r="F25">
-        <v>0.004796088985581979</v>
+        <v>0.0100174402327521</v>
       </c>
       <c r="G25">
-        <v>-0.04561900563356144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.003582613851643576</v>
+      </c>
+      <c r="H25">
+        <v>0.01262213737840693</v>
+      </c>
+      <c r="I25">
+        <v>0.03251388226295787</v>
+      </c>
+      <c r="J25">
+        <v>-0.02725935463421645</v>
+      </c>
+      <c r="K25">
+        <v>-0.01170232364798516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.009072764832523041</v>
+        <v>0.0221960307621336</v>
       </c>
       <c r="C26">
-        <v>-0.05300118306268164</v>
+        <v>0.05516838840500706</v>
       </c>
       <c r="D26">
-        <v>-0.07467796037770863</v>
+        <v>0.062029812390847</v>
       </c>
       <c r="E26">
-        <v>-0.007060058419764069</v>
+        <v>0.01280288966331169</v>
       </c>
       <c r="F26">
-        <v>0.0341866407005843</v>
+        <v>0.01071555745208651</v>
       </c>
       <c r="G26">
-        <v>-0.05364436692651686</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0101083376843026</v>
+      </c>
+      <c r="H26">
+        <v>-0.003779428009076948</v>
+      </c>
+      <c r="I26">
+        <v>0.07693635894421053</v>
+      </c>
+      <c r="J26">
+        <v>-0.09669149250149328</v>
+      </c>
+      <c r="K26">
+        <v>-0.05298531205400898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3611928572799555</v>
+        <v>0.3093793821887361</v>
       </c>
       <c r="C28">
-        <v>0.09837399194619165</v>
+        <v>-0.113399974740175</v>
       </c>
       <c r="D28">
-        <v>0.02180326566272293</v>
+        <v>-0.03240769396356407</v>
       </c>
       <c r="E28">
-        <v>-0.04560660101782637</v>
+        <v>-0.01867648312393944</v>
       </c>
       <c r="F28">
-        <v>0.04269158047620072</v>
+        <v>0.006767973846847412</v>
       </c>
       <c r="G28">
-        <v>0.1005697267761632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.04427566822239765</v>
+      </c>
+      <c r="H28">
+        <v>-0.1125414007083093</v>
+      </c>
+      <c r="I28">
+        <v>0.04483612298935085</v>
+      </c>
+      <c r="J28">
+        <v>-0.05050206506468915</v>
+      </c>
+      <c r="K28">
+        <v>0.2136848324444066</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01112264285487663</v>
+        <v>0.01703977477148067</v>
       </c>
       <c r="C29">
-        <v>-0.08348471069706448</v>
+        <v>0.08233987127674261</v>
       </c>
       <c r="D29">
-        <v>-0.04900331661686851</v>
+        <v>0.04860281723789852</v>
       </c>
       <c r="E29">
-        <v>0.006091726340397258</v>
+        <v>0.02119839168881272</v>
       </c>
       <c r="F29">
-        <v>0.05156678146315515</v>
+        <v>-0.02987774281610988</v>
       </c>
       <c r="G29">
-        <v>-0.09016247776412334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02628889221825354</v>
+      </c>
+      <c r="H29">
+        <v>0.1531161305118712</v>
+      </c>
+      <c r="I29">
+        <v>0.2165487210639502</v>
+      </c>
+      <c r="J29">
+        <v>-0.152638827547755</v>
+      </c>
+      <c r="K29">
+        <v>-0.03495252733080911</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02922850780463103</v>
+        <v>0.03413462475545296</v>
       </c>
       <c r="C30">
-        <v>-0.1693832284468136</v>
+        <v>0.1450124269158108</v>
       </c>
       <c r="D30">
-        <v>-0.06422574343024362</v>
+        <v>0.05528735820236903</v>
       </c>
       <c r="E30">
-        <v>0.04217640010469318</v>
+        <v>-0.02671683660631529</v>
       </c>
       <c r="F30">
-        <v>-0.04822009071462539</v>
+        <v>0.03593740487374239</v>
       </c>
       <c r="G30">
-        <v>-0.03627985829483649</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.03693140515641237</v>
+      </c>
+      <c r="H30">
+        <v>0.01443705041599844</v>
+      </c>
+      <c r="I30">
+        <v>0.04226122646879408</v>
+      </c>
+      <c r="J30">
+        <v>-0.002579442889995804</v>
+      </c>
+      <c r="K30">
+        <v>-0.04020643304908543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.002016374613179593</v>
+        <v>0.01449776005147359</v>
       </c>
       <c r="C31">
-        <v>-0.05147646570268529</v>
+        <v>0.07685958687466693</v>
       </c>
       <c r="D31">
-        <v>-0.03330185754512648</v>
+        <v>0.04106149858773284</v>
       </c>
       <c r="E31">
-        <v>-0.01767229888236097</v>
+        <v>-0.0002166849654195483</v>
       </c>
       <c r="F31">
-        <v>0.008147502001095699</v>
+        <v>0.005282391251171053</v>
       </c>
       <c r="G31">
-        <v>-0.004201414274062927</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.003465940305011642</v>
+      </c>
+      <c r="H31">
+        <v>-0.02202445997549349</v>
+      </c>
+      <c r="I31">
+        <v>0.03582800923811071</v>
+      </c>
+      <c r="J31">
+        <v>-0.0209355368879322</v>
+      </c>
+      <c r="K31">
+        <v>-0.00760999581698877</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01866584556316772</v>
+        <v>0.0221750209977808</v>
       </c>
       <c r="C32">
-        <v>-0.07110032304288767</v>
+        <v>0.05248507003941445</v>
       </c>
       <c r="D32">
-        <v>0.0004501566069066537</v>
+        <v>0.02465359041417989</v>
       </c>
       <c r="E32">
-        <v>0.1474258703761192</v>
+        <v>0.008260023191367778</v>
       </c>
       <c r="F32">
-        <v>0.01470707241609314</v>
+        <v>0.000892192768444906</v>
       </c>
       <c r="G32">
-        <v>-0.08856010449271975</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.116755072445509</v>
+      </c>
+      <c r="H32">
+        <v>0.07841929193187315</v>
+      </c>
+      <c r="I32">
+        <v>0.1049490713961098</v>
+      </c>
+      <c r="J32">
+        <v>-0.1499653919463075</v>
+      </c>
+      <c r="K32">
+        <v>0.2470697754453617</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01561618604625356</v>
+        <v>0.01758432593898502</v>
       </c>
       <c r="C33">
-        <v>-0.09459932629809646</v>
+        <v>0.1018827157206164</v>
       </c>
       <c r="D33">
-        <v>-0.06225212191660542</v>
+        <v>0.05199299524004587</v>
       </c>
       <c r="E33">
-        <v>0.006836925168561769</v>
+        <v>-0.00981090533078282</v>
       </c>
       <c r="F33">
-        <v>0.01054286706260302</v>
+        <v>0.01891440007654785</v>
       </c>
       <c r="G33">
-        <v>-0.04194156111389116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01241634407020248</v>
+      </c>
+      <c r="H33">
+        <v>0.0297962155722051</v>
+      </c>
+      <c r="I33">
+        <v>0.04351538328878488</v>
+      </c>
+      <c r="J33">
+        <v>-0.04601521306805719</v>
+      </c>
+      <c r="K33">
+        <v>0.01823580856692229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.005656688755904718</v>
+        <v>0.01731853558598254</v>
       </c>
       <c r="C34">
-        <v>-0.05233030004469739</v>
+        <v>0.04976630202877649</v>
       </c>
       <c r="D34">
-        <v>-0.02217760695959043</v>
+        <v>0.02110442646979202</v>
       </c>
       <c r="E34">
-        <v>-0.006294768791217153</v>
+        <v>0.01388795812969304</v>
       </c>
       <c r="F34">
-        <v>0.02231394142517375</v>
+        <v>-0.003687454009960065</v>
       </c>
       <c r="G34">
-        <v>-0.02829471202598816</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.006329050276419727</v>
+      </c>
+      <c r="H34">
+        <v>0.02061184086982027</v>
+      </c>
+      <c r="I34">
+        <v>0.02356245241654735</v>
+      </c>
+      <c r="J34">
+        <v>0.01343015581172862</v>
+      </c>
+      <c r="K34">
+        <v>-0.01143067637079691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003830249555208898</v>
+        <v>0.01011538017095466</v>
       </c>
       <c r="C35">
-        <v>-0.03067441973658052</v>
+        <v>0.04640150186358442</v>
       </c>
       <c r="D35">
-        <v>-0.009758137902372885</v>
+        <v>0.02222294944830708</v>
       </c>
       <c r="E35">
-        <v>0.003187802697461037</v>
+        <v>-0.003525993296013144</v>
       </c>
       <c r="F35">
-        <v>0.01646320807200578</v>
+        <v>-0.006332815591183511</v>
       </c>
       <c r="G35">
-        <v>-0.03437939022348185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.01212434471031228</v>
+      </c>
+      <c r="H35">
+        <v>0.06437934171991183</v>
+      </c>
+      <c r="I35">
+        <v>0.1299245248033846</v>
+      </c>
+      <c r="J35">
+        <v>-0.0708466090589585</v>
+      </c>
+      <c r="K35">
+        <v>-0.001541129537379077</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.01082550218716973</v>
+        <v>0.01373719103923825</v>
       </c>
       <c r="C36">
-        <v>-0.0534187108544211</v>
+        <v>0.04603418723980169</v>
       </c>
       <c r="D36">
-        <v>-0.05505232180048834</v>
+        <v>0.04407024612073337</v>
       </c>
       <c r="E36">
-        <v>-0.004515852858548539</v>
+        <v>-0.007086839939890352</v>
       </c>
       <c r="F36">
-        <v>0.01440535886291387</v>
+        <v>0.01051311979227387</v>
       </c>
       <c r="G36">
-        <v>-0.03286909537616704</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01046519249745649</v>
+      </c>
+      <c r="H36">
+        <v>-0.002732289194992765</v>
+      </c>
+      <c r="I36">
+        <v>0.05891184963239903</v>
+      </c>
+      <c r="J36">
+        <v>-0.07277948930617727</v>
+      </c>
+      <c r="K36">
+        <v>-0.0154324342928486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03652580025860614</v>
+        <v>0.01075476182266495</v>
       </c>
       <c r="C38">
-        <v>-0.04834458140082517</v>
+        <v>0.05765373168389588</v>
       </c>
       <c r="D38">
-        <v>-0.03949072886785374</v>
+        <v>0.03740102501482238</v>
       </c>
       <c r="E38">
-        <v>-0.01382737904627989</v>
+        <v>-0.04543359992489251</v>
       </c>
       <c r="F38">
-        <v>0.01471389960044358</v>
+        <v>0.02155097015000934</v>
       </c>
       <c r="G38">
-        <v>-0.04731704240903201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.006950549422372888</v>
+      </c>
+      <c r="H38">
+        <v>0.02284227424171496</v>
+      </c>
+      <c r="I38">
+        <v>0.05339878240843209</v>
+      </c>
+      <c r="J38">
+        <v>-0.05198008303849866</v>
+      </c>
+      <c r="K38">
+        <v>0.06860169639534706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.007627448016176226</v>
+        <v>0.02485174241250292</v>
       </c>
       <c r="C39">
-        <v>-0.1296381651928826</v>
+        <v>0.1311993123090975</v>
       </c>
       <c r="D39">
-        <v>-0.05823529506431556</v>
+        <v>0.05913656771417197</v>
       </c>
       <c r="E39">
-        <v>-0.01006020212972218</v>
+        <v>-0.008093147919423258</v>
       </c>
       <c r="F39">
-        <v>0.02143587184998945</v>
+        <v>-0.01621020550888711</v>
       </c>
       <c r="G39">
-        <v>-0.06306675263952911</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.006896188983014732</v>
+      </c>
+      <c r="H39">
+        <v>0.0433614155385735</v>
+      </c>
+      <c r="I39">
+        <v>0.04539189173864502</v>
+      </c>
+      <c r="J39">
+        <v>0.0003290659144528067</v>
+      </c>
+      <c r="K39">
+        <v>-0.08907084100306714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.009712305744446446</v>
+        <v>0.01468899749954386</v>
       </c>
       <c r="C40">
-        <v>-0.0401795771356959</v>
+        <v>0.0591532533019247</v>
       </c>
       <c r="D40">
-        <v>-0.03634439315543266</v>
+        <v>0.04462146766395236</v>
       </c>
       <c r="E40">
-        <v>0.1053469401225507</v>
+        <v>-0.002777909612466537</v>
       </c>
       <c r="F40">
-        <v>-0.05498920744479173</v>
+        <v>-0.009810142594864076</v>
       </c>
       <c r="G40">
-        <v>-0.1082031158452272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.03218251753401691</v>
+      </c>
+      <c r="H40">
+        <v>0.1503833951180137</v>
+      </c>
+      <c r="I40">
+        <v>0.01512843846088577</v>
+      </c>
+      <c r="J40">
+        <v>-0.02708397144547721</v>
+      </c>
+      <c r="K40">
+        <v>-0.06018235162513488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01334449518900077</v>
+        <v>0.02204876229297692</v>
       </c>
       <c r="C41">
-        <v>-0.02743307615030359</v>
+        <v>0.04741851895271786</v>
       </c>
       <c r="D41">
-        <v>-0.007112467665769936</v>
+        <v>0.01432967672027187</v>
       </c>
       <c r="E41">
-        <v>-0.007777228652860263</v>
+        <v>0.006427601428715857</v>
       </c>
       <c r="F41">
-        <v>0.008497240975451915</v>
+        <v>-0.006101450382802588</v>
       </c>
       <c r="G41">
-        <v>0.04613872206562414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01287205520804621</v>
+      </c>
+      <c r="H41">
+        <v>-0.004616308690189939</v>
+      </c>
+      <c r="I41">
+        <v>0.01501337915372998</v>
+      </c>
+      <c r="J41">
+        <v>-0.02455867861479961</v>
+      </c>
+      <c r="K41">
+        <v>0.02619756685103921</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.007900395060986679</v>
+        <v>0.01920772889615966</v>
       </c>
       <c r="C43">
-        <v>-0.02838732896823544</v>
+        <v>0.04489519225630916</v>
       </c>
       <c r="D43">
-        <v>-0.02563673559594377</v>
+        <v>0.02905601830101696</v>
       </c>
       <c r="E43">
-        <v>-0.005643813150348773</v>
+        <v>-0.002672185738258687</v>
       </c>
       <c r="F43">
-        <v>0.001901611711172375</v>
+        <v>0.004459705997186282</v>
       </c>
       <c r="G43">
-        <v>0.008911826897156982</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01185828202625589</v>
+      </c>
+      <c r="H43">
+        <v>0.004761348940491536</v>
+      </c>
+      <c r="I43">
+        <v>0.0256106630477648</v>
+      </c>
+      <c r="J43">
+        <v>-0.02903562122366782</v>
+      </c>
+      <c r="K43">
+        <v>-0.003259112418822638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02565106243733862</v>
+        <v>0.01755481092750502</v>
       </c>
       <c r="C44">
-        <v>-0.09981777419613212</v>
+        <v>0.0978961052300792</v>
       </c>
       <c r="D44">
-        <v>-0.0322554934474262</v>
+        <v>0.05757168279591225</v>
       </c>
       <c r="E44">
-        <v>0.02058247079396182</v>
+        <v>-0.04396980488080128</v>
       </c>
       <c r="F44">
-        <v>-0.01554274674914125</v>
+        <v>0.04621119554399983</v>
       </c>
       <c r="G44">
-        <v>-0.07261196942336129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03446417617287702</v>
+      </c>
+      <c r="H44">
+        <v>0.04953315190054271</v>
+      </c>
+      <c r="I44">
+        <v>0.02165977067536129</v>
+      </c>
+      <c r="J44">
+        <v>-0.04363047742151507</v>
+      </c>
+      <c r="K44">
+        <v>-0.05028449849608366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.002725166680303731</v>
+        <v>0.004918798473371762</v>
       </c>
       <c r="C46">
-        <v>-0.06317806477064121</v>
+        <v>0.06482844929224871</v>
       </c>
       <c r="D46">
-        <v>-0.04710845267086353</v>
+        <v>0.02883571916052311</v>
       </c>
       <c r="E46">
-        <v>0.01604969689321817</v>
+        <v>-0.00171538147672909</v>
       </c>
       <c r="F46">
-        <v>0.0261526953585243</v>
+        <v>-0.01090002916191974</v>
       </c>
       <c r="G46">
-        <v>-0.02870811561096939</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.001309425879958242</v>
+      </c>
+      <c r="H46">
+        <v>0.0374020283531874</v>
+      </c>
+      <c r="I46">
+        <v>0.05944859180889678</v>
+      </c>
+      <c r="J46">
+        <v>-0.07582242500463414</v>
+      </c>
+      <c r="K46">
+        <v>-0.02254543271340616</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.006977947886723661</v>
+        <v>0.02183020143846367</v>
       </c>
       <c r="C47">
-        <v>-0.05894911134019476</v>
+        <v>0.07358134613604919</v>
       </c>
       <c r="D47">
-        <v>-0.05508613724275722</v>
+        <v>0.04345958193045877</v>
       </c>
       <c r="E47">
-        <v>-0.01935497342821388</v>
+        <v>0.01522769545215644</v>
       </c>
       <c r="F47">
-        <v>0.05224250164470857</v>
+        <v>-0.003790774434097225</v>
       </c>
       <c r="G47">
-        <v>-0.01074868527806092</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.007761803391537793</v>
+      </c>
+      <c r="H47">
+        <v>0.008368023060883098</v>
+      </c>
+      <c r="I47">
+        <v>0.05187791656068189</v>
+      </c>
+      <c r="J47">
+        <v>-0.05327415187791991</v>
+      </c>
+      <c r="K47">
+        <v>0.01515221666756401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.007461277773616872</v>
+        <v>0.01618534486546151</v>
       </c>
       <c r="C48">
-        <v>-0.05662480112687822</v>
+        <v>0.04556608797985098</v>
       </c>
       <c r="D48">
-        <v>-0.06175075435930494</v>
+        <v>0.05284318686672954</v>
       </c>
       <c r="E48">
-        <v>-0.009972545354525573</v>
+        <v>0.01263574061403283</v>
       </c>
       <c r="F48">
-        <v>-0.001361857619548535</v>
+        <v>0.02760280450419264</v>
       </c>
       <c r="G48">
-        <v>-0.0407856719146738</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01073532956910248</v>
+      </c>
+      <c r="H48">
+        <v>-0.004455224969657843</v>
+      </c>
+      <c r="I48">
+        <v>0.08424173539549162</v>
+      </c>
+      <c r="J48">
+        <v>-0.09708759856161672</v>
+      </c>
+      <c r="K48">
+        <v>-0.03279605045799588</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02127939117649516</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.05048284303555493</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.008593948582504876</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.0239606756053426</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.03023381960615982</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.07060829984393967</v>
+      </c>
+      <c r="H49">
+        <v>0.05991792843535942</v>
+      </c>
+      <c r="I49">
+        <v>0.003215279561285861</v>
+      </c>
+      <c r="J49">
+        <v>0.1126024922287431</v>
+      </c>
+      <c r="K49">
+        <v>-0.04566218365289994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.0006848495470855398</v>
+        <v>0.01588249620466115</v>
       </c>
       <c r="C50">
-        <v>-0.0620669865457906</v>
+        <v>0.07528497840971922</v>
       </c>
       <c r="D50">
-        <v>-0.02753574607102405</v>
+        <v>0.03234055319100846</v>
       </c>
       <c r="E50">
-        <v>0.001770809457371225</v>
+        <v>0.002848810428526185</v>
       </c>
       <c r="F50">
-        <v>-0.006479237645975499</v>
+        <v>0.02043951654490646</v>
       </c>
       <c r="G50">
-        <v>-0.01774533158331235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.008556476189160955</v>
+      </c>
+      <c r="H50">
+        <v>-0.001852091935055546</v>
+      </c>
+      <c r="I50">
+        <v>0.06305104268225242</v>
+      </c>
+      <c r="J50">
+        <v>-0.02908025106212405</v>
+      </c>
+      <c r="K50">
+        <v>0.05253512353422023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.009952845365445813</v>
+        <v>-0.004058758634648248</v>
       </c>
       <c r="C51">
-        <v>-0.07180611024784454</v>
+        <v>0.03564650556282215</v>
       </c>
       <c r="D51">
-        <v>-0.0366443062960534</v>
+        <v>0.02644763539245259</v>
       </c>
       <c r="E51">
-        <v>0.02889951498734594</v>
+        <v>-0.02676423610373892</v>
       </c>
       <c r="F51">
-        <v>-0.002004485108428551</v>
+        <v>-0.0008807011146172504</v>
       </c>
       <c r="G51">
-        <v>0.001083521824470194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02372745556394475</v>
+      </c>
+      <c r="H51">
+        <v>0.02380340844518836</v>
+      </c>
+      <c r="I51">
+        <v>0.05605336532000627</v>
+      </c>
+      <c r="J51">
+        <v>-0.09358299935651887</v>
+      </c>
+      <c r="K51">
+        <v>-0.03257368097730409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03281673178119845</v>
+        <v>0.06079365212550963</v>
       </c>
       <c r="C53">
-        <v>-0.1136484434288531</v>
+        <v>0.1314672724385197</v>
       </c>
       <c r="D53">
-        <v>-0.06324383991211217</v>
+        <v>0.05694268709456295</v>
       </c>
       <c r="E53">
-        <v>-0.1158381844588795</v>
+        <v>0.03906264515013101</v>
       </c>
       <c r="F53">
-        <v>0.02070385311669259</v>
+        <v>-0.038235005008516</v>
       </c>
       <c r="G53">
-        <v>0.1032957760947427</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04061049655139492</v>
+      </c>
+      <c r="H53">
+        <v>-0.09121440990890771</v>
+      </c>
+      <c r="I53">
+        <v>-0.01417421252155647</v>
+      </c>
+      <c r="J53">
+        <v>0.00600956154423699</v>
+      </c>
+      <c r="K53">
+        <v>0.02278330880083756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.005223654092527245</v>
+        <v>0.01620446511837897</v>
       </c>
       <c r="C54">
-        <v>-0.0727053300601109</v>
+        <v>0.07149405219707509</v>
       </c>
       <c r="D54">
-        <v>-0.01365876668887755</v>
+        <v>0.01210727642789704</v>
       </c>
       <c r="E54">
-        <v>-0.02554162190958469</v>
+        <v>0.01410420673020244</v>
       </c>
       <c r="F54">
-        <v>0.003184405343362986</v>
+        <v>0.003933465181838591</v>
       </c>
       <c r="G54">
-        <v>-0.0225882046926458</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.003906397476919533</v>
+      </c>
+      <c r="H54">
+        <v>0.01666777000025976</v>
+      </c>
+      <c r="I54">
+        <v>0.04145392436765048</v>
+      </c>
+      <c r="J54">
+        <v>-0.04539500054751443</v>
+      </c>
+      <c r="K54">
+        <v>-0.02595090079611009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.0123306608586711</v>
+        <v>0.03068053424494328</v>
       </c>
       <c r="C55">
-        <v>-0.07533343295817709</v>
+        <v>0.08300035213447259</v>
       </c>
       <c r="D55">
-        <v>-0.06001274781964151</v>
+        <v>0.05297516362591369</v>
       </c>
       <c r="E55">
-        <v>-0.05680874007608686</v>
+        <v>0.03527640611275239</v>
       </c>
       <c r="F55">
-        <v>0.02239144931262454</v>
+        <v>-0.01510562584195058</v>
       </c>
       <c r="G55">
-        <v>0.03423306847717331</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02980186326137952</v>
+      </c>
+      <c r="H55">
+        <v>-0.03932881592583966</v>
+      </c>
+      <c r="I55">
+        <v>-0.007263729594647707</v>
+      </c>
+      <c r="J55">
+        <v>-0.006050150463841178</v>
+      </c>
+      <c r="K55">
+        <v>-0.007555978107106208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01651739059548416</v>
+        <v>0.0490320125925111</v>
       </c>
       <c r="C56">
-        <v>-0.148219484456141</v>
+        <v>0.1541660416305438</v>
       </c>
       <c r="D56">
-        <v>-0.06317783998219874</v>
+        <v>0.08028306424295915</v>
       </c>
       <c r="E56">
-        <v>-0.08811105612822051</v>
+        <v>0.08218640773690211</v>
       </c>
       <c r="F56">
-        <v>0.04330214638627392</v>
+        <v>-0.07231071584857662</v>
       </c>
       <c r="G56">
-        <v>0.1419017948925348</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.04623212460966421</v>
+      </c>
+      <c r="H56">
+        <v>-0.1614243591538686</v>
+      </c>
+      <c r="I56">
+        <v>-0.009006338672402314</v>
+      </c>
+      <c r="J56">
+        <v>0.03319979205873035</v>
+      </c>
+      <c r="K56">
+        <v>0.006112565519073996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03465481717583695</v>
+        <v>0.01875975487562394</v>
       </c>
       <c r="C58">
-        <v>-0.2835912930580171</v>
+        <v>0.1751466543756832</v>
       </c>
       <c r="D58">
-        <v>0.03546956348929438</v>
+        <v>0.04390845902764568</v>
       </c>
       <c r="E58">
-        <v>0.1725631025040724</v>
+        <v>-0.2049739231619299</v>
       </c>
       <c r="F58">
-        <v>-0.2265938855514757</v>
+        <v>0.1500186263455985</v>
       </c>
       <c r="G58">
-        <v>-0.01470736815654649</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.2547072370124241</v>
+      </c>
+      <c r="H58">
+        <v>-0.07173474120887079</v>
+      </c>
+      <c r="I58">
+        <v>-0.009745175483322856</v>
+      </c>
+      <c r="J58">
+        <v>-0.1611861764445379</v>
+      </c>
+      <c r="K58">
+        <v>0.09208873762947324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2877823401830973</v>
+        <v>0.2884533860005253</v>
       </c>
       <c r="C59">
-        <v>0.009012591294133381</v>
+        <v>-0.05217176337885389</v>
       </c>
       <c r="D59">
-        <v>0.009719896326299458</v>
+        <v>-0.006043397895798312</v>
       </c>
       <c r="E59">
-        <v>0.0631435756416671</v>
+        <v>-0.01784215193101609</v>
       </c>
       <c r="F59">
-        <v>0.04182485033778463</v>
+        <v>0.005830630276811824</v>
       </c>
       <c r="G59">
-        <v>0.002917410737344282</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.05400700825883199</v>
+      </c>
+      <c r="H59">
+        <v>-0.006039799149645194</v>
+      </c>
+      <c r="I59">
+        <v>-0.01985585132481849</v>
+      </c>
+      <c r="J59">
+        <v>-0.0005438307032617884</v>
+      </c>
+      <c r="K59">
+        <v>0.02867314074245583</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1122508464909208</v>
+        <v>0.1526390787282743</v>
       </c>
       <c r="C60">
-        <v>-0.1475947708053079</v>
+        <v>0.1603719662000044</v>
       </c>
       <c r="D60">
-        <v>-0.08782067633835987</v>
+        <v>0.04007626249342506</v>
       </c>
       <c r="E60">
-        <v>-0.1227030950540576</v>
+        <v>0.1564149507077337</v>
       </c>
       <c r="F60">
-        <v>0.208034324541125</v>
+        <v>-0.05483506720656707</v>
       </c>
       <c r="G60">
-        <v>-0.2298705185155006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.08538592780954621</v>
+      </c>
+      <c r="H60">
+        <v>0.225926280731598</v>
+      </c>
+      <c r="I60">
+        <v>-0.2193038323455302</v>
+      </c>
+      <c r="J60">
+        <v>0.1046175251069178</v>
+      </c>
+      <c r="K60">
+        <v>-0.01767744667901834</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.008349767162326542</v>
+        <v>0.02510575921384769</v>
       </c>
       <c r="C61">
-        <v>-0.08653303140836692</v>
+        <v>0.09829015002857784</v>
       </c>
       <c r="D61">
-        <v>-0.06832761910356591</v>
+        <v>0.05368105391342042</v>
       </c>
       <c r="E61">
-        <v>-0.02957451616634799</v>
+        <v>0.01590668641901225</v>
       </c>
       <c r="F61">
-        <v>0.03674342542761612</v>
+        <v>-0.01136531222132998</v>
       </c>
       <c r="G61">
-        <v>-0.06889486602268148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.01999951402256077</v>
+      </c>
+      <c r="H61">
+        <v>0.02955878738024278</v>
+      </c>
+      <c r="I61">
+        <v>0.0607347050300284</v>
+      </c>
+      <c r="J61">
+        <v>-0.004549680654501813</v>
+      </c>
+      <c r="K61">
+        <v>-0.03387422347612046</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002709038068929944</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01485514765879649</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003110304142747801</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01785238895301375</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.02876379850786357</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01097287572859962</v>
+      </c>
+      <c r="H62">
+        <v>0.01884568996959841</v>
+      </c>
+      <c r="I62">
+        <v>0.01942095111249359</v>
+      </c>
+      <c r="J62">
+        <v>-0.00115550715960875</v>
+      </c>
+      <c r="K62">
+        <v>0.007554093657688054</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001445197709605446</v>
+        <v>0.02680745678051188</v>
       </c>
       <c r="C63">
-        <v>-0.05933794062523643</v>
+        <v>0.06413087684758487</v>
       </c>
       <c r="D63">
-        <v>-0.03570761914770505</v>
+        <v>0.05880899353177638</v>
       </c>
       <c r="E63">
-        <v>-0.01764240284308143</v>
+        <v>0.01543400907934425</v>
       </c>
       <c r="F63">
-        <v>0.001138234134145111</v>
+        <v>-0.002835810334068177</v>
       </c>
       <c r="G63">
-        <v>0.002317379588380821</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.004548743144790675</v>
+      </c>
+      <c r="H63">
+        <v>0.001776750088471592</v>
+      </c>
+      <c r="I63">
+        <v>0.06427700152834927</v>
+      </c>
+      <c r="J63">
+        <v>-0.02894325898537132</v>
+      </c>
+      <c r="K63">
+        <v>-0.01525741972794943</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.0009053590100977238</v>
+        <v>0.01818931152991671</v>
       </c>
       <c r="C64">
-        <v>-0.08915261396945368</v>
+        <v>0.09122382104732739</v>
       </c>
       <c r="D64">
-        <v>-0.0710532668740296</v>
+        <v>0.03448310234368279</v>
       </c>
       <c r="E64">
-        <v>-0.009277898239851003</v>
+        <v>0.01804420951889573</v>
       </c>
       <c r="F64">
-        <v>-0.00338289903767983</v>
+        <v>0.05193135831144673</v>
       </c>
       <c r="G64">
-        <v>-0.04448798254319868</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01336004904472883</v>
+      </c>
+      <c r="H64">
+        <v>0.06025817124789307</v>
+      </c>
+      <c r="I64">
+        <v>0.04217472596706116</v>
+      </c>
+      <c r="J64">
+        <v>-0.02576668687169796</v>
+      </c>
+      <c r="K64">
+        <v>-0.08165699131167056</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.01120846572881003</v>
+        <v>0.03312518338598319</v>
       </c>
       <c r="C65">
-        <v>-0.09007705357344407</v>
+        <v>0.09369055152830964</v>
       </c>
       <c r="D65">
-        <v>-0.03096254479006438</v>
+        <v>0.02338442945304648</v>
       </c>
       <c r="E65">
-        <v>0.01837530750792136</v>
+        <v>-0.002556895727882349</v>
       </c>
       <c r="F65">
-        <v>0.01863314515674603</v>
+        <v>0.006215806025511153</v>
       </c>
       <c r="G65">
-        <v>-0.07977890835075181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01162044785552558</v>
+      </c>
+      <c r="H65">
+        <v>0.08689445978164366</v>
+      </c>
+      <c r="I65">
+        <v>-0.01035261170701241</v>
+      </c>
+      <c r="J65">
+        <v>0.004042493109889717</v>
+      </c>
+      <c r="K65">
+        <v>-0.04981087343090477</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.007368597975016811</v>
+        <v>0.02238450838942354</v>
       </c>
       <c r="C66">
-        <v>-0.1735081613005013</v>
+        <v>0.171180394288904</v>
       </c>
       <c r="D66">
-        <v>-0.04639188562542754</v>
+        <v>0.05117833894322572</v>
       </c>
       <c r="E66">
-        <v>0.02510541735193945</v>
+        <v>-0.004385669576001992</v>
       </c>
       <c r="F66">
-        <v>0.03401184138491883</v>
+        <v>-0.01400625110811841</v>
       </c>
       <c r="G66">
-        <v>-0.08859408550913733</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.00847448572198351</v>
+      </c>
+      <c r="H66">
+        <v>0.0346478473555128</v>
+      </c>
+      <c r="I66">
+        <v>0.06619653764466968</v>
+      </c>
+      <c r="J66">
+        <v>0.001835073171138944</v>
+      </c>
+      <c r="K66">
+        <v>-0.06215722338090277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.03594389633312567</v>
+        <v>0.02027639272875843</v>
       </c>
       <c r="C67">
-        <v>-0.02622657341522996</v>
+        <v>0.05036893051652924</v>
       </c>
       <c r="D67">
-        <v>-0.05737377213940606</v>
+        <v>0.03889889049081745</v>
       </c>
       <c r="E67">
-        <v>-0.04734887511888414</v>
+        <v>-0.02866844331097345</v>
       </c>
       <c r="F67">
-        <v>0.02927947176425588</v>
+        <v>0.002747683794303154</v>
       </c>
       <c r="G67">
-        <v>-0.05491040847427668</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03312082039574064</v>
+      </c>
+      <c r="H67">
+        <v>0.04293110178418553</v>
+      </c>
+      <c r="I67">
+        <v>0.01798953923233121</v>
+      </c>
+      <c r="J67">
+        <v>-0.05593565978924263</v>
+      </c>
+      <c r="K67">
+        <v>0.04938562635378817</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2946907288148467</v>
+        <v>0.2927472269121129</v>
       </c>
       <c r="C68">
-        <v>0.03195933314393978</v>
+        <v>-0.07802598192190691</v>
       </c>
       <c r="D68">
-        <v>0.0007164950549675983</v>
+        <v>-0.02628386794059153</v>
       </c>
       <c r="E68">
-        <v>0.02665828689684799</v>
+        <v>0.01274397200239058</v>
       </c>
       <c r="F68">
-        <v>0.002503410143769567</v>
+        <v>0.02411916540382685</v>
       </c>
       <c r="G68">
-        <v>-0.009124740452712816</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03995871836787741</v>
+      </c>
+      <c r="H68">
+        <v>-0.02359270150347178</v>
+      </c>
+      <c r="I68">
+        <v>0.02756404730588202</v>
+      </c>
+      <c r="J68">
+        <v>-0.02213883800668789</v>
+      </c>
+      <c r="K68">
+        <v>0.0456851196938793</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01053556559338057</v>
+        <v>0.01031070033708271</v>
       </c>
       <c r="C69">
-        <v>-0.05559558440775415</v>
+        <v>0.04713925239525989</v>
       </c>
       <c r="D69">
-        <v>-0.05541598518008933</v>
+        <v>0.02523520440095593</v>
       </c>
       <c r="E69">
-        <v>-0.03180927804907582</v>
+        <v>-0.002945691937045437</v>
       </c>
       <c r="F69">
-        <v>0.006565617895993013</v>
+        <v>-0.01603363722873083</v>
       </c>
       <c r="G69">
-        <v>-0.02114850778609353</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.008567683947939282</v>
+      </c>
+      <c r="H69">
+        <v>0.01779537416100933</v>
+      </c>
+      <c r="I69">
+        <v>0.008183753564613695</v>
+      </c>
+      <c r="J69">
+        <v>-0.03628049721423625</v>
+      </c>
+      <c r="K69">
+        <v>0.02673383757692852</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2853089985660462</v>
+        <v>0.274286528558646</v>
       </c>
       <c r="C71">
-        <v>0.04895072978342658</v>
+        <v>-0.08042685809848686</v>
       </c>
       <c r="D71">
-        <v>0.01268956805079005</v>
+        <v>-0.02190726704323374</v>
       </c>
       <c r="E71">
-        <v>0.02516354168692255</v>
+        <v>-0.0276033700728676</v>
       </c>
       <c r="F71">
-        <v>-0.01561587715231167</v>
+        <v>0.03829706318574135</v>
       </c>
       <c r="G71">
-        <v>-0.002764369228653635</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.04578013774704854</v>
+      </c>
+      <c r="H71">
+        <v>-0.02089470579896968</v>
+      </c>
+      <c r="I71">
+        <v>0.03299201217975991</v>
+      </c>
+      <c r="J71">
+        <v>-0.05348394564183817</v>
+      </c>
+      <c r="K71">
+        <v>0.1105092351841158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.01406631239616254</v>
+        <v>0.05364842717830419</v>
       </c>
       <c r="C72">
-        <v>-0.150602567828454</v>
+        <v>0.137865238628821</v>
       </c>
       <c r="D72">
-        <v>-0.0699588629909545</v>
+        <v>0.04948403542575958</v>
       </c>
       <c r="E72">
-        <v>-0.02042541971930748</v>
+        <v>0.06363457396042388</v>
       </c>
       <c r="F72">
-        <v>-0.04047399527520026</v>
+        <v>-0.00122758391772735</v>
       </c>
       <c r="G72">
-        <v>-0.1012336410798644</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.01751038296938088</v>
+      </c>
+      <c r="H72">
+        <v>-0.005941848264342383</v>
+      </c>
+      <c r="I72">
+        <v>0.04761344662846661</v>
+      </c>
+      <c r="J72">
+        <v>-0.02331394818346529</v>
+      </c>
+      <c r="K72">
+        <v>-0.09470578497992484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.08090147696831876</v>
+        <v>0.156875925682651</v>
       </c>
       <c r="C73">
-        <v>-0.1156738671367122</v>
+        <v>0.1972576972527479</v>
       </c>
       <c r="D73">
-        <v>-0.1344688618574771</v>
+        <v>0.08343394314341408</v>
       </c>
       <c r="E73">
-        <v>-0.1960461896912019</v>
+        <v>0.1195970678929514</v>
       </c>
       <c r="F73">
-        <v>0.2374022358456786</v>
+        <v>-0.09215293968133124</v>
       </c>
       <c r="G73">
-        <v>-0.318426996072832</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1936053038893545</v>
+      </c>
+      <c r="H73">
+        <v>0.3536070822442438</v>
+      </c>
+      <c r="I73">
+        <v>-0.3018543180904625</v>
+      </c>
+      <c r="J73">
+        <v>0.1106333481953457</v>
+      </c>
+      <c r="K73">
+        <v>0.1413230409540902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.0139037690150002</v>
+        <v>0.03863601949865125</v>
       </c>
       <c r="C74">
-        <v>-0.08447299340198776</v>
+        <v>0.09775003757102048</v>
       </c>
       <c r="D74">
-        <v>-0.06839134829484204</v>
+        <v>0.04451105739845709</v>
       </c>
       <c r="E74">
-        <v>-0.06528312388862402</v>
+        <v>0.03681546203017025</v>
       </c>
       <c r="F74">
-        <v>0.03099413722049889</v>
+        <v>0.00812837509401082</v>
       </c>
       <c r="G74">
-        <v>0.05715236049005972</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.0255424234406899</v>
+      </c>
+      <c r="H74">
+        <v>-0.05321637801932721</v>
+      </c>
+      <c r="I74">
+        <v>0.001952531574948711</v>
+      </c>
+      <c r="J74">
+        <v>-0.02808522000756998</v>
+      </c>
+      <c r="K74">
+        <v>-0.01069506377879566</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.04180759663972559</v>
+        <v>0.06374061158470173</v>
       </c>
       <c r="C75">
-        <v>-0.1421292068133576</v>
+        <v>0.1637297509836219</v>
       </c>
       <c r="D75">
-        <v>-0.06965641211527052</v>
+        <v>0.08065118036931551</v>
       </c>
       <c r="E75">
-        <v>-0.138832967629049</v>
+        <v>0.04493487116973047</v>
       </c>
       <c r="F75">
-        <v>-0.005214066875614281</v>
+        <v>-0.0124644747123036</v>
       </c>
       <c r="G75">
-        <v>0.1921275313324426</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1001379493133511</v>
+      </c>
+      <c r="H75">
+        <v>-0.2165263265445563</v>
+      </c>
+      <c r="I75">
+        <v>0.03088125208366692</v>
+      </c>
+      <c r="J75">
+        <v>0.02744382699826419</v>
+      </c>
+      <c r="K75">
+        <v>0.1226225088194979</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01541724674616835</v>
+        <v>0.04554770413814501</v>
       </c>
       <c r="C76">
-        <v>-0.1076810388888357</v>
+        <v>0.1261691722546327</v>
       </c>
       <c r="D76">
-        <v>-0.06165849825922306</v>
+        <v>0.07388521046961963</v>
       </c>
       <c r="E76">
-        <v>-0.08313204086118363</v>
+        <v>0.03185289661916503</v>
       </c>
       <c r="F76">
-        <v>0.03935256824749291</v>
+        <v>-0.04700891238139902</v>
       </c>
       <c r="G76">
-        <v>0.07319254061364842</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.06478193518804766</v>
+      </c>
+      <c r="H76">
+        <v>-0.07983368687412211</v>
+      </c>
+      <c r="I76">
+        <v>0.00983648716076318</v>
+      </c>
+      <c r="J76">
+        <v>0.03815180857635884</v>
+      </c>
+      <c r="K76">
+        <v>-0.02415187486193394</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09915512305249924</v>
+        <v>0.05544866640329384</v>
       </c>
       <c r="C77">
-        <v>-0.3476182660427309</v>
+        <v>0.3990707697921301</v>
       </c>
       <c r="D77">
-        <v>0.8423852471690026</v>
+        <v>-0.900157636059311</v>
       </c>
       <c r="E77">
-        <v>-0.2961861051861119</v>
+        <v>0.004626434937864201</v>
       </c>
       <c r="F77">
-        <v>0.120629154172865</v>
+        <v>-0.008762546254597334</v>
       </c>
       <c r="G77">
-        <v>-0.006578526044596669</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.07306758061096474</v>
+      </c>
+      <c r="H77">
+        <v>-0.03013832785152611</v>
+      </c>
+      <c r="I77">
+        <v>0.08207975155113797</v>
+      </c>
+      <c r="J77">
+        <v>0.01203947350501957</v>
+      </c>
+      <c r="K77">
+        <v>0.0214217203885752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03325979032826772</v>
+        <v>0.03885099349928784</v>
       </c>
       <c r="C78">
-        <v>-0.1251005403950783</v>
+        <v>0.1139590857392541</v>
       </c>
       <c r="D78">
-        <v>-0.1685616578381888</v>
+        <v>0.09364836668372439</v>
       </c>
       <c r="E78">
-        <v>0.08876771859782719</v>
+        <v>-0.0190471965268567</v>
       </c>
       <c r="F78">
-        <v>0.1202626170749237</v>
+        <v>-0.04895877099621333</v>
       </c>
       <c r="G78">
-        <v>0.1313579650627426</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01362602462464203</v>
+      </c>
+      <c r="H78">
+        <v>-0.1089734943357859</v>
+      </c>
+      <c r="I78">
+        <v>0.02053570517725349</v>
+      </c>
+      <c r="J78">
+        <v>-0.07078158341425506</v>
+      </c>
+      <c r="K78">
+        <v>-0.06856846509506764</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02587929194703449</v>
+        <v>0.05801768294136323</v>
       </c>
       <c r="C79">
-        <v>-0.1631303688673326</v>
+        <v>0.1408451942800244</v>
       </c>
       <c r="D79">
-        <v>-0.103300276599629</v>
+        <v>0.06734930548448946</v>
       </c>
       <c r="E79">
-        <v>-0.09411707985264323</v>
+        <v>0.04268918672286951</v>
       </c>
       <c r="F79">
-        <v>0.02782292633422974</v>
+        <v>-0.04345169002153471</v>
       </c>
       <c r="G79">
-        <v>0.3038745797802872</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.03574712864930581</v>
+      </c>
+      <c r="H79">
+        <v>-0.2686766141991717</v>
+      </c>
+      <c r="I79">
+        <v>0.02322299018153287</v>
+      </c>
+      <c r="J79">
+        <v>-0.04228046782543891</v>
+      </c>
+      <c r="K79">
+        <v>0.06460868144922666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.005055839399743575</v>
+        <v>0.0196747742688343</v>
       </c>
       <c r="C80">
-        <v>-0.05570511496945415</v>
+        <v>0.04518678137111924</v>
       </c>
       <c r="D80">
-        <v>-0.04128528026954395</v>
+        <v>0.03651166063571942</v>
       </c>
       <c r="E80">
-        <v>0.05047767414425625</v>
+        <v>-0.01948854273850678</v>
       </c>
       <c r="F80">
-        <v>0.01020357526905604</v>
+        <v>-0.03457304507524105</v>
       </c>
       <c r="G80">
-        <v>-0.008072135906917962</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.0535055010109132</v>
+      </c>
+      <c r="H80">
+        <v>0.0796891803526041</v>
+      </c>
+      <c r="I80">
+        <v>-0.03681029641672558</v>
+      </c>
+      <c r="J80">
+        <v>0.01082751749182064</v>
+      </c>
+      <c r="K80">
+        <v>0.01801760151378039</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.002132652860282057</v>
+        <v>0.01668166539116242</v>
       </c>
       <c r="C81">
-        <v>-0.08293289423463085</v>
+        <v>0.09635712811979505</v>
       </c>
       <c r="D81">
-        <v>-0.0669424819967572</v>
+        <v>0.05621082054740461</v>
       </c>
       <c r="E81">
-        <v>-0.07629018228766545</v>
+        <v>0.02790262104723791</v>
       </c>
       <c r="F81">
-        <v>0.03187400428251091</v>
+        <v>-0.02877990770505042</v>
       </c>
       <c r="G81">
-        <v>0.100285235761027</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02346784403310309</v>
+      </c>
+      <c r="H81">
+        <v>-0.1108521918444011</v>
+      </c>
+      <c r="I81">
+        <v>0.03868486266151242</v>
+      </c>
+      <c r="J81">
+        <v>-0.04968597327288021</v>
+      </c>
+      <c r="K81">
+        <v>0.03734274839702805</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01929952943763067</v>
+        <v>0.04726214047153222</v>
       </c>
       <c r="C82">
-        <v>-0.07919635918345586</v>
+        <v>0.106872169190508</v>
       </c>
       <c r="D82">
-        <v>-0.06923834084281325</v>
+        <v>0.06409158255362869</v>
       </c>
       <c r="E82">
-        <v>-0.09151470071804349</v>
+        <v>0.02675853781581991</v>
       </c>
       <c r="F82">
-        <v>0.04267028422536145</v>
+        <v>-0.05489392306928936</v>
       </c>
       <c r="G82">
-        <v>0.05283009162884802</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.05426494230852613</v>
+      </c>
+      <c r="H82">
+        <v>-0.07958507945764128</v>
+      </c>
+      <c r="I82">
+        <v>0.02465760944233246</v>
+      </c>
+      <c r="J82">
+        <v>0.02176401894843502</v>
+      </c>
+      <c r="K82">
+        <v>0.01288106017764059</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.004734799649007386</v>
+        <v>-0.000157958128109909</v>
       </c>
       <c r="C83">
-        <v>-0.01435541206831214</v>
+        <v>-0.02211546310286316</v>
       </c>
       <c r="D83">
-        <v>0.1289098826345882</v>
+        <v>-0.05518718211087562</v>
       </c>
       <c r="E83">
-        <v>0.5689948591981074</v>
+        <v>0.1888084558991112</v>
       </c>
       <c r="F83">
-        <v>0.6898878096617045</v>
+        <v>-0.7332941796127902</v>
       </c>
       <c r="G83">
-        <v>0.2072013669645979</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.5924264121559898</v>
+      </c>
+      <c r="H83">
+        <v>-0.001337752300213095</v>
+      </c>
+      <c r="I83">
+        <v>-0.01352226633481785</v>
+      </c>
+      <c r="J83">
+        <v>0.1178253594611699</v>
+      </c>
+      <c r="K83">
+        <v>-0.04598615534391647</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.001077289632562184</v>
+        <v>0.01407602984395371</v>
       </c>
       <c r="C84">
-        <v>-0.09404425870798169</v>
+        <v>0.06298727625829993</v>
       </c>
       <c r="D84">
-        <v>-0.02723422861784365</v>
+        <v>0.08673930207216098</v>
       </c>
       <c r="E84">
-        <v>0.07410804375588853</v>
+        <v>-0.3750702714495683</v>
       </c>
       <c r="F84">
-        <v>-0.1599579988229973</v>
+        <v>-0.02358344817688608</v>
       </c>
       <c r="G84">
-        <v>-0.01412933663418423</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.01015720015527426</v>
+      </c>
+      <c r="H84">
+        <v>0.1276137112201092</v>
+      </c>
+      <c r="I84">
+        <v>0.4934907380621708</v>
+      </c>
+      <c r="J84">
+        <v>0.6931386891367785</v>
+      </c>
+      <c r="K84">
+        <v>0.167041974454453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.002276942403482319</v>
+        <v>0.03140784484297469</v>
       </c>
       <c r="C85">
-        <v>-0.1085178467513142</v>
+        <v>0.1146679947916987</v>
       </c>
       <c r="D85">
-        <v>-0.06829968176339618</v>
+        <v>0.0802759324505614</v>
       </c>
       <c r="E85">
-        <v>-0.08332092916991264</v>
+        <v>0.0586848912490163</v>
       </c>
       <c r="F85">
-        <v>0.02643271419768436</v>
+        <v>-0.06881176918091134</v>
       </c>
       <c r="G85">
-        <v>0.2098781243852301</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.09240791007548482</v>
+      </c>
+      <c r="H85">
+        <v>-0.2300416301677017</v>
+      </c>
+      <c r="I85">
+        <v>0.01846015767224603</v>
+      </c>
+      <c r="J85">
+        <v>0.04285129346347571</v>
+      </c>
+      <c r="K85">
+        <v>0.07586432171698075</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.02276053555610472</v>
+        <v>0.01481337219743988</v>
       </c>
       <c r="C86">
-        <v>-0.07671265613392762</v>
+        <v>0.07757625878197176</v>
       </c>
       <c r="D86">
-        <v>0.009849631867483328</v>
+        <v>0.03085320164303319</v>
       </c>
       <c r="E86">
-        <v>0.01253143082087001</v>
+        <v>-0.06779705563493373</v>
       </c>
       <c r="F86">
-        <v>-0.003636961515815042</v>
+        <v>0.007868554121144549</v>
       </c>
       <c r="G86">
-        <v>-0.08821419604095378</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.06353918267079497</v>
+      </c>
+      <c r="H86">
+        <v>-0.04703039055095842</v>
+      </c>
+      <c r="I86">
+        <v>-0.06714433834060715</v>
+      </c>
+      <c r="J86">
+        <v>-0.1036919206518664</v>
+      </c>
+      <c r="K86">
+        <v>0.1359590711996273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02864136534500153</v>
+        <v>0.02592936716007229</v>
       </c>
       <c r="C87">
-        <v>-0.1598980026968818</v>
+        <v>0.1179177901333399</v>
       </c>
       <c r="D87">
-        <v>-0.02789198095785424</v>
+        <v>0.01872100505704009</v>
       </c>
       <c r="E87">
-        <v>0.09170017056879222</v>
+        <v>0.01937819786008646</v>
       </c>
       <c r="F87">
-        <v>-0.06253909033388415</v>
+        <v>0.03910099916874422</v>
       </c>
       <c r="G87">
-        <v>-0.0002509675391900326</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.04783430777370044</v>
+      </c>
+      <c r="H87">
+        <v>-0.008880390744996419</v>
+      </c>
+      <c r="I87">
+        <v>0.05341173027677358</v>
+      </c>
+      <c r="J87">
+        <v>-0.0004674892234700794</v>
+      </c>
+      <c r="K87">
+        <v>-0.1082258328879581</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.009196208910664619</v>
+        <v>0.03917286907697299</v>
       </c>
       <c r="C88">
-        <v>-0.03630255822752321</v>
+        <v>0.05911474253280741</v>
       </c>
       <c r="D88">
-        <v>-0.03835628261432995</v>
+        <v>0.03848952714068642</v>
       </c>
       <c r="E88">
-        <v>-0.05380867048973369</v>
+        <v>0.02509036983134382</v>
       </c>
       <c r="F88">
-        <v>0.008467516011401464</v>
+        <v>0.005714979899804394</v>
       </c>
       <c r="G88">
-        <v>-0.01166271190993545</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.01964130921426755</v>
+      </c>
+      <c r="H88">
+        <v>0.01104322349281137</v>
+      </c>
+      <c r="I88">
+        <v>-0.007653067906011763</v>
+      </c>
+      <c r="J88">
+        <v>-0.01532308238262157</v>
+      </c>
+      <c r="K88">
+        <v>-0.0166869428262356</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4011803325001068</v>
+        <v>0.3903658597477449</v>
       </c>
       <c r="C89">
-        <v>0.08562001662229952</v>
+        <v>-0.1234351154061757</v>
       </c>
       <c r="D89">
-        <v>-0.06975676111324898</v>
+        <v>-0.03824809288116642</v>
       </c>
       <c r="E89">
-        <v>0.05725809727202585</v>
+        <v>-0.01247833288519778</v>
       </c>
       <c r="F89">
-        <v>-0.09032895282213371</v>
+        <v>0.0592947632731541</v>
       </c>
       <c r="G89">
-        <v>0.05153845624322376</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01444478096051821</v>
+      </c>
+      <c r="H89">
+        <v>0.03268177227318268</v>
+      </c>
+      <c r="I89">
+        <v>0.04775909522759926</v>
+      </c>
+      <c r="J89">
+        <v>0.06843080401453992</v>
+      </c>
+      <c r="K89">
+        <v>-0.7378353956061265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3104313357337543</v>
+        <v>0.3165769380142802</v>
       </c>
       <c r="C90">
-        <v>0.02524537151064653</v>
+        <v>-0.07963369191653931</v>
       </c>
       <c r="D90">
-        <v>-0.008653344667210051</v>
+        <v>-0.0186970518503095</v>
       </c>
       <c r="E90">
-        <v>0.0546127988273178</v>
+        <v>-0.01200179850569125</v>
       </c>
       <c r="F90">
-        <v>0.0527932648706229</v>
+        <v>0.007987257322512292</v>
       </c>
       <c r="G90">
-        <v>-0.02080003270351471</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02887994845134384</v>
+      </c>
+      <c r="H90">
+        <v>0.0004533988834710064</v>
+      </c>
+      <c r="I90">
+        <v>0.0127417676200269</v>
+      </c>
+      <c r="J90">
+        <v>0.007020482870181506</v>
+      </c>
+      <c r="K90">
+        <v>0.1045192204289971</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02360417580279427</v>
+        <v>0.0565366378753225</v>
       </c>
       <c r="C91">
-        <v>-0.07748501528427017</v>
+        <v>0.07810170060239949</v>
       </c>
       <c r="D91">
-        <v>-0.05616773156040786</v>
+        <v>0.05264756693939886</v>
       </c>
       <c r="E91">
-        <v>-0.04539185593609724</v>
+        <v>0.05215229468043587</v>
       </c>
       <c r="F91">
-        <v>0.04238963826007198</v>
+        <v>-0.04667222785207802</v>
       </c>
       <c r="G91">
-        <v>0.09085490331512588</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.007946424996923933</v>
+      </c>
+      <c r="H91">
+        <v>-0.08684969412612707</v>
+      </c>
+      <c r="I91">
+        <v>-0.007563451748933523</v>
+      </c>
+      <c r="J91">
+        <v>0.02468534502411688</v>
+      </c>
+      <c r="K91">
+        <v>0.00416015595279643</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3770388818099899</v>
+        <v>0.3495639184331392</v>
       </c>
       <c r="C92">
-        <v>0.07529293273406924</v>
+        <v>-0.1252203084277797</v>
       </c>
       <c r="D92">
-        <v>0.01978274007037963</v>
+        <v>-0.05635520735280956</v>
       </c>
       <c r="E92">
-        <v>-0.01227666091452085</v>
+        <v>-0.02200498816084517</v>
       </c>
       <c r="F92">
-        <v>-0.1170929360295487</v>
+        <v>0.0576038905137945</v>
       </c>
       <c r="G92">
-        <v>-0.003293057048272553</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01839059291490636</v>
+      </c>
+      <c r="H92">
+        <v>-0.009761846563641959</v>
+      </c>
+      <c r="I92">
+        <v>0.04090145012058906</v>
+      </c>
+      <c r="J92">
+        <v>-0.06155501791248068</v>
+      </c>
+      <c r="K92">
+        <v>0.1339713729638326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3044383582012873</v>
+        <v>0.3073609105815261</v>
       </c>
       <c r="C93">
-        <v>0.08463201059515044</v>
+        <v>-0.1236237951179056</v>
       </c>
       <c r="D93">
-        <v>-0.008713468304089752</v>
+        <v>-0.007024929573760785</v>
       </c>
       <c r="E93">
-        <v>0.07853173334880048</v>
+        <v>-0.04215678819674275</v>
       </c>
       <c r="F93">
-        <v>-0.04084682803265206</v>
+        <v>0.01484070560331142</v>
       </c>
       <c r="G93">
-        <v>-0.007808455189310328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03466562722474942</v>
+      </c>
+      <c r="H93">
+        <v>-0.03857999734073238</v>
+      </c>
+      <c r="I93">
+        <v>0.01370674085873998</v>
+      </c>
+      <c r="J93">
+        <v>-0.03352325391944605</v>
+      </c>
+      <c r="K93">
+        <v>0.1193768992008913</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03621292952140419</v>
+        <v>0.08264237036957145</v>
       </c>
       <c r="C94">
-        <v>-0.1928826310716164</v>
+        <v>0.1650480801543968</v>
       </c>
       <c r="D94">
-        <v>-0.1253048128345507</v>
+        <v>0.1108927164625381</v>
       </c>
       <c r="E94">
-        <v>-0.1450169104904022</v>
+        <v>0.06679230868655103</v>
       </c>
       <c r="F94">
-        <v>-0.0631533381471199</v>
+        <v>-0.08012805367578246</v>
       </c>
       <c r="G94">
-        <v>0.5932588100959882</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.08883342867556296</v>
+      </c>
+      <c r="H94">
+        <v>-0.5430028179315184</v>
+      </c>
+      <c r="I94">
+        <v>-0.1030651230365384</v>
+      </c>
+      <c r="J94">
+        <v>0.1913864275101209</v>
+      </c>
+      <c r="K94">
+        <v>-0.07455179791069032</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02405188444074036</v>
+        <v>0.04391628431879879</v>
       </c>
       <c r="C95">
-        <v>-0.1219785076789413</v>
+        <v>0.1315175604557018</v>
       </c>
       <c r="D95">
-        <v>-0.05322278788304814</v>
+        <v>0.06388914113130612</v>
       </c>
       <c r="E95">
-        <v>-0.06783378862725653</v>
+        <v>0.01414897662589013</v>
       </c>
       <c r="F95">
-        <v>0.1049781437166622</v>
+        <v>-0.01863436291403235</v>
       </c>
       <c r="G95">
-        <v>-0.01969812645559398</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.08674295324032628</v>
+      </c>
+      <c r="H95">
+        <v>0.04660696537042935</v>
+      </c>
+      <c r="I95">
+        <v>0.08946491464256674</v>
+      </c>
+      <c r="J95">
+        <v>0.06987591597199237</v>
+      </c>
+      <c r="K95">
+        <v>-0.1795327602107087</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.002439442896683444</v>
+        <v>0.02159228052947594</v>
       </c>
       <c r="C97">
-        <v>-0.0008699033262512839</v>
+        <v>0.02605863196959965</v>
       </c>
       <c r="D97">
-        <v>-0.0002274085859932799</v>
+        <v>-0.00706689963961048</v>
       </c>
       <c r="E97">
-        <v>-0.003644224135904865</v>
+        <v>-0.0551563512588663</v>
       </c>
       <c r="F97">
-        <v>-0.002821902077430523</v>
+        <v>-0.01001282736428205</v>
       </c>
       <c r="G97">
-        <v>-0.006736048727562504</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.03302953999380887</v>
+      </c>
+      <c r="H97">
+        <v>0.02981994082500341</v>
+      </c>
+      <c r="I97">
+        <v>-0.03217772412638939</v>
+      </c>
+      <c r="J97">
+        <v>-0.0438121120443939</v>
+      </c>
+      <c r="K97">
+        <v>-0.0489205587085704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09336953193054937</v>
+        <v>0.1389429853549514</v>
       </c>
       <c r="C98">
-        <v>-0.1541101598508695</v>
+        <v>0.162453219289527</v>
       </c>
       <c r="D98">
-        <v>-0.1506031194992427</v>
+        <v>0.08831984249908263</v>
       </c>
       <c r="E98">
-        <v>-0.1225803107568603</v>
+        <v>0.1440035957144392</v>
       </c>
       <c r="F98">
-        <v>0.1493697092768891</v>
+        <v>-0.09686690263074083</v>
       </c>
       <c r="G98">
-        <v>-0.1886657153236672</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1592679158634596</v>
+      </c>
+      <c r="H98">
+        <v>0.2830328134296203</v>
+      </c>
+      <c r="I98">
+        <v>-0.2878528427544308</v>
+      </c>
+      <c r="J98">
+        <v>0.1470414707335009</v>
+      </c>
+      <c r="K98">
+        <v>0.1342639258972329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.03019834098258271</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.0660732284768908</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.009733189972066155</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.7902923953081759</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.3860239376776616</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.1967524226306368</v>
+      </c>
+      <c r="H99">
+        <v>-0.01280345690418104</v>
+      </c>
+      <c r="I99">
+        <v>-0.2754178850239788</v>
+      </c>
+      <c r="J99">
+        <v>-0.2033275525212516</v>
+      </c>
+      <c r="K99">
+        <v>-0.09453869280754933</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01121615941310271</v>
+        <v>0.01714230067467616</v>
       </c>
       <c r="C101">
-        <v>-0.08164094463335966</v>
+        <v>0.08109801447923902</v>
       </c>
       <c r="D101">
-        <v>-0.04929446887117857</v>
+        <v>0.04726876798153079</v>
       </c>
       <c r="E101">
-        <v>0.007176224618407063</v>
+        <v>0.01932165650513897</v>
       </c>
       <c r="F101">
-        <v>0.0511765939209271</v>
+        <v>-0.03049882831109498</v>
       </c>
       <c r="G101">
-        <v>-0.08932332940868905</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02612838458642376</v>
+      </c>
+      <c r="H101">
+        <v>0.1540890861544869</v>
+      </c>
+      <c r="I101">
+        <v>0.2152998546952032</v>
+      </c>
+      <c r="J101">
+        <v>-0.1506011362378181</v>
+      </c>
+      <c r="K101">
+        <v>-0.03365540827440913</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.00505356026041434</v>
+        <v>0.002195834710515323</v>
       </c>
       <c r="C102">
-        <v>-0.01404395959858809</v>
+        <v>0.005677021779186481</v>
       </c>
       <c r="D102">
-        <v>0.003534517773575461</v>
+        <v>-0.002976485479630562</v>
       </c>
       <c r="E102">
-        <v>-0.01807639620782079</v>
+        <v>0.003417427645186024</v>
       </c>
       <c r="F102">
-        <v>0.01356126299697797</v>
+        <v>-0.001326108331199166</v>
       </c>
       <c r="G102">
-        <v>0.01077523546342595</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.002164966018868179</v>
+      </c>
+      <c r="H102">
+        <v>-0.002529801651625239</v>
+      </c>
+      <c r="I102">
+        <v>0.005395935115468257</v>
+      </c>
+      <c r="J102">
+        <v>-0.006340644190979447</v>
+      </c>
+      <c r="K102">
+        <v>-0.01543198296082469</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
